--- a/biology/Zoologie/Conosmilia/Conosmilia.xlsx
+++ b/biology/Zoologie/Conosmilia/Conosmilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conosmilia est un genre éteint de coraux durs (scléractiniaires) de la famille des Flabellidae. Les différentes espèces datent de l'ère tertiaire. L'espèce C. elegans provient de terrains tertiaires du sud de l'Australie (Geelong, État du Victoria). 
 </t>
